--- a/public/DataJadwalDosen/Tes upload jadwal dosen full.xlsx
+++ b/public/DataJadwalDosen/Tes upload jadwal dosen full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MATERI KULIAH\SEMESTER 8\TUGAS AKHIR\Databse jadwal dosen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEC0256-87CF-4917-AAEF-C196ACA379BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6AFDCC-CA1D-428E-B2B2-256C9EC3DEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1BCB4717-DAD1-4820-9C0C-A89D53E5EC8B}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1BCB4717-DAD1-4820-9C0C-A89D53E5EC8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AB37D2-3A6A-4064-AC52-1A120AB91F2E}">
   <dimension ref="B1:K594"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A573" workbookViewId="0">
-      <selection activeCell="J588" sqref="J588"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="K324" activeCellId="1" sqref="C325:H342 K324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
